--- a/Data List.xlsx
+++ b/Data List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Downloads/프로젝트/깃허브 레파지토리/Quant-Algorithm-Dashboard/1. Collect Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B739AF-8007-F049-8263-61AD70501FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C5684C-20DE-DC4F-A656-9E6CB5A01764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="237">
   <si>
     <t>변수명</t>
   </si>
@@ -409,9 +409,6 @@
     <t>미국 실업률</t>
   </si>
   <si>
-    <t>수출 증가율 (한국 기업 실적 미리보기)</t>
-  </si>
-  <si>
     <t>미국 10년물 국채금리 (성장주 쥐약)</t>
   </si>
   <si>
@@ -692,6 +689,88 @@
   </si>
   <si>
     <t>ECOS_API_KEY = os.getenv('ECOS_API_KEY')</t>
+  </si>
+  <si>
+    <t>전년 동기 대비 수출 증가율 (한국 기업 실적 미리보기)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거시 경제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>export_amt</t>
+  </si>
+  <si>
+    <t>달러 기준 수출 금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecos.get_statistic_search(stat_code='901Y118', item_code1='T002', start_date=start, end_date=end)</t>
+  </si>
+  <si>
+    <t>df['export_amt'].pct_change(12) * 100</t>
+  </si>
+  <si>
+    <t>ECOS_API_KEY = os.getenv('ECOS_API_KEY')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kospi200_history.csv, kosdaq150_history.csv</t>
+  </si>
+  <si>
+    <t>stock.get_market_cap_by_date(start, end, ticker)['시가총액']</t>
+  </si>
+  <si>
+    <t>실제 사용할 데이터 X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_net_income_ttm(ticker, date)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 펀더멘털</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_income_ttm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 4기간 당기순이익 합계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['revenue_growth']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['operating_margin']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['roe']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['roa']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['debt_ratio']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['per']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['pbr']</t>
+  </si>
+  <si>
+    <t>calculate_final_ratios(data_list, Market_Cap, net_income_ttm=Net_Income_TTM)['ev_ebitda']</t>
+  </si>
+  <si>
+    <t>OPENDART API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DART_API_KEY = os.getenv('OPENDART_API_KEY')</t>
   </si>
 </sst>
 </file>
@@ -794,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +885,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -819,15 +907,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1132,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG108"/>
+  <dimension ref="A1:BG109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1162,20 +1246,20 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1186,8 +1270,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1196,8 +1280,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1206,8 +1290,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1216,8 +1300,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1227,18 +1311,18 @@
         <v>77</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1246,18 +1330,18 @@
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1265,15 +1349,15 @@
         <v>79</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1281,15 +1365,15 @@
         <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1297,15 +1381,15 @@
         <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1313,15 +1397,15 @@
         <v>82</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1329,15 +1413,15 @@
         <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1345,15 +1429,15 @@
         <v>84</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1361,15 +1445,15 @@
         <v>85</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1377,15 +1461,15 @@
         <v>86</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1393,15 +1477,15 @@
         <v>87</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1409,18 +1493,18 @@
         <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1428,15 +1512,15 @@
         <v>89</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1444,15 +1528,15 @@
         <v>90</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1462,15 +1546,15 @@
         <v>91</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1478,125 +1562,125 @@
         <v>92</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1606,15 +1690,15 @@
         <v>93</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1622,15 +1706,15 @@
         <v>94</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1638,15 +1722,15 @@
         <v>95</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1654,15 +1738,15 @@
         <v>96</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1670,15 +1754,15 @@
         <v>97</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1686,15 +1770,15 @@
         <v>98</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1702,15 +1786,15 @@
         <v>99</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1718,15 +1802,15 @@
         <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1734,15 +1818,15 @@
         <v>101</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1750,15 +1834,15 @@
         <v>102</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1766,15 +1850,15 @@
         <v>103</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1782,15 +1866,15 @@
         <v>104</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1798,15 +1882,15 @@
         <v>105</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1814,15 +1898,15 @@
         <v>106</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1830,15 +1914,15 @@
         <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1846,18 +1930,18 @@
         <v>108</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1865,14 +1949,14 @@
         <v>109</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
@@ -1883,17 +1967,17 @@
         <v>110</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1903,15 +1987,15 @@
         <v>111</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1919,15 +2003,15 @@
         <v>112</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1935,15 +2019,15 @@
         <v>113</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1951,15 +2035,15 @@
         <v>114</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1967,15 +2051,15 @@
         <v>115</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1984,90 +2068,171 @@
       <c r="D51" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E54" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E55" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="E57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="E59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6" t="s">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2077,34 +2242,34 @@
         <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2112,18 +2277,18 @@
         <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2131,18 +2296,18 @@
         <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2150,504 +2315,549 @@
         <v>128</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:59">
-      <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:59">
-      <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:59">
-      <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59">
+      <c r="A68" s="8"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="68" spans="1:59">
-      <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G68" s="9"/>
+      <c r="E68" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:59" s="4" customFormat="1">
-      <c r="A69" s="5"/>
-      <c r="B69" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+      <c r="AL69"/>
+      <c r="AM69"/>
+      <c r="AN69"/>
+      <c r="AO69"/>
+      <c r="AP69"/>
+      <c r="AQ69"/>
+      <c r="AR69"/>
+      <c r="AS69"/>
+      <c r="AT69"/>
+      <c r="AU69"/>
+      <c r="AV69"/>
+      <c r="AW69"/>
+      <c r="AX69"/>
+      <c r="AY69"/>
+      <c r="AZ69"/>
+      <c r="BA69"/>
+      <c r="BB69"/>
+      <c r="BC69"/>
+      <c r="BD69"/>
+      <c r="BE69"/>
+      <c r="BF69"/>
+      <c r="BG69"/>
+    </row>
+    <row r="70" spans="1:59">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:59">
+      <c r="A71" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59">
+      <c r="A72" s="13"/>
+      <c r="B72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="12"/>
-      <c r="AI69" s="12"/>
-      <c r="AJ69" s="12"/>
-      <c r="AK69" s="12"/>
-      <c r="AL69" s="12"/>
-      <c r="AM69" s="12"/>
-      <c r="AN69" s="12"/>
-      <c r="AO69" s="12"/>
-      <c r="AP69" s="12"/>
-      <c r="AQ69" s="12"/>
-      <c r="AR69" s="12"/>
-      <c r="AS69" s="12"/>
-      <c r="AT69" s="12"/>
-      <c r="AU69" s="12"/>
-      <c r="AV69" s="12"/>
-      <c r="AW69" s="12"/>
-      <c r="AX69" s="12"/>
-      <c r="AY69" s="12"/>
-      <c r="AZ69" s="12"/>
-      <c r="BA69" s="12"/>
-      <c r="BB69" s="12"/>
-      <c r="BC69" s="12"/>
-      <c r="BD69" s="12"/>
-      <c r="BE69" s="12"/>
-      <c r="BF69" s="12"/>
-      <c r="BG69" s="12"/>
-    </row>
-    <row r="70" spans="1:59" s="12" customFormat="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="1:59" s="12" customFormat="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:59" s="12" customFormat="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:59" s="12" customFormat="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:59" s="12" customFormat="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:59" s="12" customFormat="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:59" s="12" customFormat="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:59" s="12" customFormat="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:59" s="12" customFormat="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-    </row>
-    <row r="79" spans="1:59" s="12" customFormat="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:59" s="12" customFormat="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" s="12" customFormat="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-    </row>
-    <row r="82" spans="1:7" s="12" customFormat="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" s="12" customFormat="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" s="12" customFormat="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" spans="1:7" s="12" customFormat="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" s="12" customFormat="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" s="12" customFormat="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" spans="1:7" s="12" customFormat="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" s="12" customFormat="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" s="12" customFormat="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-    </row>
-    <row r="91" spans="1:7" s="12" customFormat="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" spans="1:7" s="12" customFormat="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-    </row>
-    <row r="93" spans="1:7" s="12" customFormat="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" spans="1:7" s="12" customFormat="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-    </row>
-    <row r="95" spans="1:7" s="12" customFormat="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" s="12" customFormat="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:7" s="12" customFormat="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" spans="1:7" s="12" customFormat="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:7" s="12" customFormat="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:7" s="12" customFormat="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-    </row>
-    <row r="101" spans="1:7" s="12" customFormat="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:7" s="12" customFormat="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:7" s="12" customFormat="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-    </row>
-    <row r="104" spans="1:7" s="12" customFormat="1">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-    </row>
-    <row r="105" spans="1:7" s="12" customFormat="1">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-    </row>
-    <row r="106" spans="1:7" s="12" customFormat="1">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:7" s="12" customFormat="1">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:7" s="12" customFormat="1">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
+      <c r="G72" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:59">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:59">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:59">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:59">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:59">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:59">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:59">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A28:A45"/>
     <mergeCell ref="A46:A69"/>
     <mergeCell ref="B2:B5"/>
